--- a/GATEWAY/A1#111MELOGRANOXX/IL_MELOGRANO_DATA_SERVICES/FSE-RAD/1.0/RAD_accreditamento-checklist_V8.1.3.xlsx
+++ b/GATEWAY/A1#111MELOGRANOXX/IL_MELOGRANO_DATA_SERVICES/FSE-RAD/1.0/RAD_accreditamento-checklist_V8.1.3.xlsx
@@ -295,13 +295,13 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in moda da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>2023-12-01T16:43:23Z</t>
-  </si>
-  <si>
-    <t>99916aba39617666</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.150.4.4.5a49b345ba37347bd0f42e3c94418bc6bdc51f3c424828e33d52807c1b96c52b.b2d0b6abf2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2023-12-06T10:10:51Z</t>
+  </si>
+  <si>
+    <t>7f80423949a46619</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.150.4.4.cf85dab399767d4a3d46418a843abdd2f8fae7907ab5a7a54e6b25a88110f071.ea801e1f97^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>SI</t>
@@ -3994,7 +3994,7 @@
         <v>51</v>
       </c>
       <c r="F10" s="33">
-        <v>45261.0</v>
+        <v>45266.0</v>
       </c>
       <c r="G10" s="34" t="s">
         <v>52</v>
